--- a/database/industries/ghaza/ghegorji/cost/quarterly.xlsx
+++ b/database/industries/ghaza/ghegorji/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghegorji\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghegorji\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342D2831-E509-4127-B79F-52BD45174938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8345CD66-4B4C-4A63-845F-E2E6633B341D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -715,16 +730,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I208"/>
+  <dimension ref="B1:N208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -733,8 +748,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -745,8 +765,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -757,8 +782,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -767,8 +797,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -779,8 +814,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -791,8 +831,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -801,8 +846,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -823,8 +873,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -833,98 +898,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>413738</v>
+      </c>
+      <c r="F10" s="9">
+        <v>565563</v>
+      </c>
+      <c r="G10" s="9">
+        <v>521933</v>
+      </c>
+      <c r="H10" s="9">
+        <v>511745</v>
+      </c>
+      <c r="I10" s="9">
+        <v>572127</v>
+      </c>
+      <c r="J10" s="9">
         <v>876671</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>54557</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>382950</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>1136614</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>991383</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>31715</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45279</v>
+      </c>
+      <c r="G11" s="11">
+        <v>20397</v>
+      </c>
+      <c r="H11" s="11">
+        <v>35890</v>
+      </c>
+      <c r="I11" s="11">
+        <v>53044</v>
+      </c>
+      <c r="J11" s="11">
         <v>44567</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>38658</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>21535</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>84282</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>53988</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>46881</v>
+      </c>
+      <c r="F12" s="9">
+        <v>52804</v>
+      </c>
+      <c r="G12" s="9">
+        <v>9149</v>
+      </c>
+      <c r="H12" s="9">
+        <v>41687</v>
+      </c>
+      <c r="I12" s="9">
+        <v>41236</v>
+      </c>
+      <c r="J12" s="9">
         <v>40335</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>50093</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>16649</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>108594</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>100348</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>492334</v>
+      </c>
+      <c r="F13" s="13">
+        <v>663646</v>
+      </c>
+      <c r="G13" s="13">
+        <v>551479</v>
+      </c>
+      <c r="H13" s="13">
+        <v>589322</v>
+      </c>
+      <c r="I13" s="13">
+        <v>666407</v>
+      </c>
+      <c r="J13" s="13">
         <v>961573</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>143308</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>421134</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>1329490</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>1145719</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -943,32 +1073,62 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>492334</v>
+      </c>
+      <c r="F15" s="13">
+        <v>663646</v>
+      </c>
+      <c r="G15" s="13">
+        <v>551479</v>
+      </c>
+      <c r="H15" s="13">
+        <v>589322</v>
+      </c>
+      <c r="I15" s="13">
+        <v>666407</v>
+      </c>
+      <c r="J15" s="13">
         <v>961573</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>143308</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>421134</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>1329490</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>1145719</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -987,10 +1147,25 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1004,37 +1179,67 @@
         <v>0</v>
       </c>
       <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
         <v>-2384</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>2384</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>492334</v>
+      </c>
+      <c r="F18" s="15">
+        <v>663646</v>
+      </c>
+      <c r="G18" s="15">
+        <v>551479</v>
+      </c>
+      <c r="H18" s="15">
+        <v>589322</v>
+      </c>
+      <c r="I18" s="15">
+        <v>666407</v>
+      </c>
+      <c r="J18" s="15">
         <v>961573</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>143308</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>421134</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>1327106</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>1148103</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1042,107 +1247,182 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>71926</v>
+      </c>
+      <c r="H19" s="11">
+        <v>93794</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>12606</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>57281</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>67254</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>218891</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>36335</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-71926</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-93794</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-101258</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-16629</v>
+      </c>
+      <c r="J20" s="9">
         <v>-12606</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-57281</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-67254</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-218891</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-195879</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>528669</v>
+      </c>
+      <c r="F21" s="13">
+        <v>591720</v>
+      </c>
+      <c r="G21" s="13">
+        <v>572607</v>
+      </c>
+      <c r="H21" s="13">
+        <v>581858</v>
+      </c>
+      <c r="I21" s="13">
+        <v>649778</v>
+      </c>
+      <c r="J21" s="13">
         <v>948967</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>216520</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>411161</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1175469</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>1171115</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
+        <v>22300</v>
+      </c>
+      <c r="F22" s="9">
+        <v>4422</v>
+      </c>
+      <c r="G22" s="9">
+        <v>135616</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>10308</v>
+      </c>
+      <c r="J22" s="9">
         <v>2050</v>
       </c>
-      <c r="F22" s="9">
+      <c r="K22" s="9">
         <v>6822</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
         <v>7807</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>28557</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>550969</v>
+      </c>
+      <c r="F23" s="13">
+        <v>596142</v>
+      </c>
+      <c r="G23" s="13">
+        <v>708223</v>
+      </c>
+      <c r="H23" s="13">
+        <v>581858</v>
+      </c>
+      <c r="I23" s="13">
+        <v>660086</v>
+      </c>
+      <c r="J23" s="13">
         <v>951017</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>223342</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>411161</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1183276</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>1199672</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1151,8 +1431,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1161,8 +1446,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1171,10 +1461,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1193,8 +1488,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1203,92 +1513,142 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
-        <v>40</v>
+      <c r="E29" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="9">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H29" s="9">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="I29" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="9">
+        <v>40</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>39</v>
+      </c>
+      <c r="M29" s="9">
+        <v>15</v>
+      </c>
+      <c r="N29" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11">
+      <c r="E30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="11">
+        <v>89</v>
+      </c>
+      <c r="I30" s="11">
+        <v>7</v>
+      </c>
+      <c r="J30" s="11">
         <v>104</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="K30" s="11">
+        <v>47</v>
+      </c>
+      <c r="L30" s="11">
         <v>32</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>34</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>63</v>
+      </c>
+      <c r="F31" s="9">
+        <v>136</v>
+      </c>
+      <c r="G31" s="9">
+        <v>93</v>
+      </c>
+      <c r="H31" s="9">
+        <v>187</v>
+      </c>
+      <c r="I31" s="9">
+        <v>152</v>
+      </c>
+      <c r="J31" s="9">
         <v>147</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="K31" s="9">
+        <v>113</v>
+      </c>
+      <c r="L31" s="9">
         <v>92</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>127</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
         <v>1</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>26</v>
+      <c r="F32" s="11">
+        <v>1</v>
       </c>
       <c r="G32" s="11">
         <v>1</v>
@@ -1299,102 +1659,177 @@
       <c r="I32" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="11">
+        <v>1</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11">
+        <v>1</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1</v>
+      </c>
+      <c r="N32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>61</v>
+      </c>
+      <c r="F33" s="9">
+        <v>34</v>
+      </c>
+      <c r="G33" s="9">
+        <v>64</v>
+      </c>
+      <c r="H33" s="9">
+        <v>7</v>
+      </c>
+      <c r="I33" s="9">
+        <v>15</v>
+      </c>
+      <c r="J33" s="9">
         <v>36</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="K33" s="9">
+        <v>37</v>
+      </c>
+      <c r="L33" s="9">
+        <v>8</v>
+      </c>
+      <c r="M33" s="9">
+        <v>45</v>
+      </c>
+      <c r="N33" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11">
+        <v>109</v>
+      </c>
+      <c r="F34" s="11">
         <v>26</v>
       </c>
-      <c r="G33" s="9">
-        <v>8</v>
-      </c>
-      <c r="H33" s="9">
-        <v>45</v>
-      </c>
-      <c r="I33" s="9">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="G34" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>26</v>
+      <c r="E35" s="9">
+        <v>176</v>
+      </c>
+      <c r="F35" s="9">
+        <v>95</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>410</v>
+      </c>
+      <c r="F36" s="13">
+        <v>292</v>
+      </c>
+      <c r="G36" s="13">
+        <v>158</v>
+      </c>
+      <c r="H36" s="13">
+        <v>388</v>
+      </c>
+      <c r="I36" s="13">
+        <v>225</v>
+      </c>
+      <c r="J36" s="13">
         <v>328</v>
       </c>
-      <c r="F36" s="13">
-        <v>0</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="K36" s="13">
+        <v>198</v>
+      </c>
+      <c r="L36" s="13">
         <v>172</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>222</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>244</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1403,8 +1838,13 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1413,8 +1853,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1423,10 +1868,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1445,8 +1895,23 @@
       <c r="I40" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1455,85 +1920,135 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9">
+      <c r="E42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="9">
+        <v>2628</v>
+      </c>
+      <c r="H42" s="9">
+        <v>469</v>
+      </c>
+      <c r="I42" s="9">
+        <v>494</v>
+      </c>
+      <c r="J42" s="9">
         <v>508</v>
       </c>
-      <c r="F42" s="9">
+      <c r="K42" s="9">
         <v>410</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>150</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>431</v>
       </c>
-      <c r="I42" s="9">
+      <c r="N42" s="9">
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11">
+      <c r="E43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="11">
+        <v>2868</v>
+      </c>
+      <c r="H43" s="11">
+        <v>524</v>
+      </c>
+      <c r="I43" s="11">
+        <v>661</v>
+      </c>
+      <c r="J43" s="11">
         <v>561</v>
       </c>
-      <c r="F43" s="11">
+      <c r="K43" s="11">
         <v>427</v>
       </c>
-      <c r="G43" s="11">
+      <c r="L43" s="11">
         <v>198</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>449</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>505</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
+        <v>444</v>
+      </c>
+      <c r="F44" s="9">
+        <v>272</v>
+      </c>
+      <c r="G44" s="9">
+        <v>183</v>
+      </c>
+      <c r="H44" s="9">
+        <v>191</v>
+      </c>
+      <c r="I44" s="9">
+        <v>176</v>
+      </c>
+      <c r="J44" s="9">
         <v>164</v>
       </c>
-      <c r="F44" s="9">
+      <c r="K44" s="9">
         <v>145</v>
       </c>
-      <c r="G44" s="9">
+      <c r="L44" s="9">
         <v>86</v>
       </c>
-      <c r="H44" s="9">
+      <c r="M44" s="9">
         <v>135</v>
       </c>
-      <c r="I44" s="9">
+      <c r="N44" s="9">
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
@@ -1543,110 +2058,185 @@
         <v>0</v>
       </c>
       <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
         <v>1</v>
       </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
       <c r="I45" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="11">
+        <v>0</v>
+      </c>
+      <c r="K45" s="11">
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
+        <v>1</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
+        <v>2464</v>
+      </c>
+      <c r="F46" s="9">
+        <v>2844</v>
+      </c>
+      <c r="G46" s="9">
+        <v>2076</v>
+      </c>
+      <c r="H46" s="9">
+        <v>2035</v>
+      </c>
+      <c r="I46" s="9">
+        <v>1983</v>
+      </c>
+      <c r="J46" s="9">
         <v>2110</v>
       </c>
-      <c r="F46" s="9">
+      <c r="K46" s="9">
         <v>1376</v>
       </c>
-      <c r="G46" s="9">
+      <c r="L46" s="9">
         <v>645</v>
       </c>
-      <c r="H46" s="9">
+      <c r="M46" s="9">
         <v>1510</v>
       </c>
-      <c r="I46" s="9">
+      <c r="N46" s="9">
         <v>1561</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>26</v>
+      <c r="E47" s="11">
+        <v>537</v>
+      </c>
+      <c r="F47" s="11">
+        <v>661</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>26</v>
+      <c r="E48" s="9">
+        <v>657</v>
+      </c>
+      <c r="F48" s="9">
+        <v>763</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
+        <v>4102</v>
+      </c>
+      <c r="F49" s="13">
+        <v>4540</v>
+      </c>
+      <c r="G49" s="13">
+        <v>7755</v>
+      </c>
+      <c r="H49" s="13">
+        <v>3220</v>
+      </c>
+      <c r="I49" s="13">
+        <v>3314</v>
+      </c>
+      <c r="J49" s="13">
         <v>3343</v>
       </c>
-      <c r="F49" s="13">
+      <c r="K49" s="13">
         <v>2358</v>
       </c>
-      <c r="G49" s="13">
+      <c r="L49" s="13">
         <v>1080</v>
       </c>
-      <c r="H49" s="13">
+      <c r="M49" s="13">
         <v>2525</v>
       </c>
-      <c r="I49" s="13">
+      <c r="N49" s="13">
         <v>2716</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1655,8 +2245,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1665,8 +2260,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1675,10 +2275,15 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1697,8 +2302,23 @@
       <c r="I53" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1707,85 +2327,135 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9">
+      <c r="E55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="9">
+        <v>2619</v>
+      </c>
+      <c r="H55" s="9">
+        <v>523</v>
+      </c>
+      <c r="I55" s="9">
+        <v>504</v>
+      </c>
+      <c r="J55" s="9">
         <v>548</v>
       </c>
-      <c r="F55" s="9">
+      <c r="K55" s="9">
         <v>371</v>
       </c>
-      <c r="G55" s="9">
+      <c r="L55" s="9">
         <v>174</v>
       </c>
-      <c r="H55" s="9">
+      <c r="M55" s="9">
         <v>396</v>
       </c>
-      <c r="I55" s="9">
+      <c r="N55" s="9">
         <v>417</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11">
+      <c r="E56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="11">
+        <v>2883</v>
+      </c>
+      <c r="H56" s="11">
+        <v>606</v>
+      </c>
+      <c r="I56" s="11">
+        <v>564</v>
+      </c>
+      <c r="J56" s="11">
         <v>618</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>442</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>196</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>438</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>499</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>375</v>
+      </c>
+      <c r="F57" s="9">
+        <v>315</v>
+      </c>
+      <c r="G57" s="9">
+        <v>89</v>
+      </c>
+      <c r="H57" s="9">
+        <v>226</v>
+      </c>
+      <c r="I57" s="9">
+        <v>181</v>
+      </c>
+      <c r="J57" s="9">
         <v>198</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>166</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>51</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>163</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
@@ -1795,110 +2465,185 @@
         <v>0</v>
       </c>
       <c r="G58" s="11">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11">
         <v>1</v>
       </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
       <c r="I58" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="11">
+        <v>0</v>
+      </c>
+      <c r="K58" s="11">
+        <v>0</v>
+      </c>
+      <c r="L58" s="11">
+        <v>1</v>
+      </c>
+      <c r="M58" s="11">
+        <v>0</v>
+      </c>
+      <c r="N58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>2485</v>
+      </c>
+      <c r="F59" s="9">
+        <v>2814</v>
+      </c>
+      <c r="G59" s="9">
+        <v>2133</v>
+      </c>
+      <c r="H59" s="9">
+        <v>2027</v>
+      </c>
+      <c r="I59" s="9">
+        <v>1962</v>
+      </c>
+      <c r="J59" s="9">
         <v>2109</v>
       </c>
-      <c r="F59" s="9">
+      <c r="K59" s="9">
         <v>1405</v>
       </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
         <v>608</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>1506</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>1530</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>26</v>
+      <c r="E60" s="11">
+        <v>620</v>
+      </c>
+      <c r="F60" s="11">
+        <v>680</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>26</v>
+      <c r="E61" s="9">
+        <v>738</v>
+      </c>
+      <c r="F61" s="9">
+        <v>823</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>4218</v>
+      </c>
+      <c r="F62" s="13">
+        <v>4632</v>
+      </c>
+      <c r="G62" s="13">
+        <v>7724</v>
+      </c>
+      <c r="H62" s="13">
+        <v>3383</v>
+      </c>
+      <c r="I62" s="13">
+        <v>3211</v>
+      </c>
+      <c r="J62" s="13">
         <v>3473</v>
       </c>
-      <c r="F62" s="13">
+      <c r="K62" s="13">
         <v>2384</v>
       </c>
-      <c r="G62" s="13">
+      <c r="L62" s="13">
         <v>1030</v>
       </c>
-      <c r="H62" s="13">
+      <c r="M62" s="13">
         <v>2503</v>
       </c>
-      <c r="I62" s="13">
+      <c r="N62" s="13">
         <v>2643</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1907,8 +2652,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1917,8 +2667,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1927,10 +2682,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1949,8 +2709,23 @@
       <c r="I66" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1959,85 +2734,135 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9">
-        <v>0</v>
-      </c>
-      <c r="F68" s="9">
-        <v>39</v>
+      <c r="E68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G68" s="9">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H68" s="9">
         <v>50</v>
       </c>
       <c r="I68" s="9">
+        <v>40</v>
+      </c>
+      <c r="J68" s="9">
+        <v>0</v>
+      </c>
+      <c r="K68" s="9">
+        <v>39</v>
+      </c>
+      <c r="L68" s="9">
+        <v>15</v>
+      </c>
+      <c r="M68" s="9">
+        <v>50</v>
+      </c>
+      <c r="N68" s="9">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11">
+      <c r="E69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="11">
+        <v>89</v>
+      </c>
+      <c r="H69" s="11">
+        <v>7</v>
+      </c>
+      <c r="I69" s="11">
+        <v>104</v>
+      </c>
+      <c r="J69" s="11">
         <v>47</v>
       </c>
-      <c r="F69" s="11">
+      <c r="K69" s="11">
         <v>32</v>
       </c>
-      <c r="G69" s="11">
+      <c r="L69" s="11">
         <v>34</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>45</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
+        <v>136</v>
+      </c>
+      <c r="F70" s="9">
+        <v>93</v>
+      </c>
+      <c r="G70" s="9">
+        <v>187</v>
+      </c>
+      <c r="H70" s="9">
+        <v>152</v>
+      </c>
+      <c r="I70" s="9">
+        <v>147</v>
+      </c>
+      <c r="J70" s="9">
         <v>113</v>
       </c>
-      <c r="F70" s="9">
+      <c r="K70" s="9">
         <v>92</v>
       </c>
-      <c r="G70" s="9">
+      <c r="L70" s="9">
         <v>127</v>
       </c>
-      <c r="H70" s="9">
+      <c r="M70" s="9">
         <v>99</v>
       </c>
-      <c r="I70" s="9">
+      <c r="N70" s="9">
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
@@ -2055,102 +2880,177 @@
       <c r="I71" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="11">
+        <v>1</v>
+      </c>
+      <c r="K71" s="11">
+        <v>1</v>
+      </c>
+      <c r="L71" s="11">
+        <v>1</v>
+      </c>
+      <c r="M71" s="11">
+        <v>1</v>
+      </c>
+      <c r="N71" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
+        <v>34</v>
+      </c>
+      <c r="F72" s="9">
+        <v>64</v>
+      </c>
+      <c r="G72" s="9">
+        <v>7</v>
+      </c>
+      <c r="H72" s="9">
+        <v>15</v>
+      </c>
+      <c r="I72" s="9">
+        <v>36</v>
+      </c>
+      <c r="J72" s="9">
         <v>37</v>
       </c>
-      <c r="F72" s="9">
+      <c r="K72" s="9">
         <v>8</v>
       </c>
-      <c r="G72" s="9">
+      <c r="L72" s="9">
         <v>45</v>
       </c>
-      <c r="H72" s="9">
+      <c r="M72" s="9">
         <v>49</v>
       </c>
-      <c r="I72" s="9">
+      <c r="N72" s="9">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="11">
         <v>26</v>
       </c>
-      <c r="F73" s="11" t="s">
-        <v>26</v>
+      <c r="F73" s="11">
+        <v>7</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>26</v>
+      <c r="E74" s="9">
+        <v>95</v>
+      </c>
+      <c r="F74" s="9">
+        <v>35</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
+        <v>292</v>
+      </c>
+      <c r="F75" s="13">
+        <v>200</v>
+      </c>
+      <c r="G75" s="13">
+        <v>388</v>
+      </c>
+      <c r="H75" s="13">
+        <v>225</v>
+      </c>
+      <c r="I75" s="13">
+        <v>328</v>
+      </c>
+      <c r="J75" s="13">
         <v>198</v>
       </c>
-      <c r="F75" s="13">
+      <c r="K75" s="13">
         <v>172</v>
       </c>
-      <c r="G75" s="13">
+      <c r="L75" s="13">
         <v>222</v>
       </c>
-      <c r="H75" s="13">
+      <c r="M75" s="13">
         <v>244</v>
       </c>
-      <c r="I75" s="13">
+      <c r="N75" s="13">
         <v>317</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2159,8 +3059,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2169,8 +3074,13 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2179,10 +3089,15 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2201,8 +3116,23 @@
       <c r="I79" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2211,198 +3141,323 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9">
+      <c r="E81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" s="9">
+        <v>11311</v>
+      </c>
+      <c r="I81" s="9">
+        <v>11860</v>
+      </c>
+      <c r="J81" s="9">
         <v>5590</v>
       </c>
-      <c r="F81" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="9">
+      <c r="K81" s="9">
+        <v>0</v>
+      </c>
+      <c r="L81" s="9">
         <v>6462</v>
       </c>
-      <c r="H81" s="9">
+      <c r="M81" s="9">
         <v>4856</v>
       </c>
-      <c r="I81" s="9">
+      <c r="N81" s="9">
         <v>23228</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11">
+      <c r="E82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" s="11">
+        <v>11393</v>
+      </c>
+      <c r="I82" s="11">
+        <v>866</v>
+      </c>
+      <c r="J82" s="11">
         <v>12957</v>
       </c>
-      <c r="F82" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="11">
+      <c r="K82" s="11">
+        <v>6126</v>
+      </c>
+      <c r="L82" s="11">
         <v>4724</v>
       </c>
-      <c r="H82" s="11">
+      <c r="M82" s="11">
         <v>5742</v>
       </c>
-      <c r="I82" s="11">
+      <c r="N82" s="11">
         <v>8299</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
+        <v>21722</v>
+      </c>
+      <c r="F83" s="9">
+        <v>89713</v>
+      </c>
+      <c r="G83" s="9">
+        <v>30496</v>
+      </c>
+      <c r="H83" s="9">
+        <v>173099</v>
+      </c>
+      <c r="I83" s="9">
+        <v>105936</v>
+      </c>
+      <c r="J83" s="9">
         <v>146238</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="9">
+      <c r="K83" s="9">
+        <v>115509</v>
+      </c>
+      <c r="L83" s="9">
         <v>139624</v>
       </c>
-      <c r="H83" s="9">
+      <c r="M83" s="9">
         <v>152498</v>
       </c>
-      <c r="I83" s="9">
+      <c r="N83" s="9">
         <v>210632</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>178924</v>
+      </c>
+      <c r="F84" s="11">
+        <v>114653</v>
+      </c>
+      <c r="G84" s="11">
+        <v>132676</v>
+      </c>
+      <c r="H84" s="11">
+        <v>118290</v>
+      </c>
+      <c r="I84" s="11">
+        <v>171430</v>
+      </c>
+      <c r="J84" s="11">
         <v>125734</v>
       </c>
-      <c r="F84" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="11">
+      <c r="K84" s="11">
+        <v>148626</v>
+      </c>
+      <c r="L84" s="11">
         <v>334190</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>284199</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>183512</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>1742</v>
+      </c>
+      <c r="F85" s="9">
+        <v>1214</v>
+      </c>
+      <c r="G85" s="9">
+        <v>2254</v>
+      </c>
+      <c r="H85" s="9">
+        <v>302</v>
+      </c>
+      <c r="I85" s="9">
+        <v>699</v>
+      </c>
+      <c r="J85" s="9">
         <v>2114</v>
       </c>
-      <c r="F85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="9">
+      <c r="K85" s="9">
+        <v>2827</v>
+      </c>
+      <c r="L85" s="9">
         <v>803</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>5815</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>7101</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C86" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11">
+        <v>9126</v>
+      </c>
+      <c r="F86" s="11">
+        <v>2676</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B87" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C87" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>26</v>
+      <c r="E87" s="9">
+        <v>11021</v>
+      </c>
+      <c r="F87" s="9">
+        <v>6450</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
+        <v>222535</v>
+      </c>
+      <c r="F88" s="13">
+        <v>214706</v>
+      </c>
+      <c r="G88" s="13">
+        <v>165426</v>
+      </c>
+      <c r="H88" s="13">
+        <v>314395</v>
+      </c>
+      <c r="I88" s="13">
+        <v>290791</v>
+      </c>
+      <c r="J88" s="13">
         <v>292633</v>
       </c>
-      <c r="F88" s="13">
-        <v>0</v>
-      </c>
-      <c r="G88" s="13">
+      <c r="K88" s="13">
+        <v>273088</v>
+      </c>
+      <c r="L88" s="13">
         <v>485803</v>
       </c>
-      <c r="H88" s="13">
+      <c r="M88" s="13">
         <v>453110</v>
       </c>
-      <c r="I88" s="13">
+      <c r="N88" s="13">
         <v>432772</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2411,8 +3466,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2421,8 +3481,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2431,10 +3496,15 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2453,8 +3523,23 @@
       <c r="I92" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2463,198 +3548,323 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9">
+      <c r="E94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" s="9">
+        <v>268123</v>
+      </c>
+      <c r="H94" s="9">
+        <v>60189</v>
+      </c>
+      <c r="I94" s="9">
+        <v>71480</v>
+      </c>
+      <c r="J94" s="9">
         <v>81196</v>
       </c>
-      <c r="F94" s="9">
+      <c r="K94" s="9">
         <v>98668</v>
       </c>
-      <c r="G94" s="9">
+      <c r="L94" s="9">
         <v>47158</v>
       </c>
-      <c r="H94" s="9">
+      <c r="M94" s="9">
         <v>236282</v>
       </c>
-      <c r="I94" s="9">
+      <c r="N94" s="9">
         <v>203103</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11">
+      <c r="E95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="11">
+        <v>219887</v>
+      </c>
+      <c r="H95" s="11">
+        <v>64367</v>
+      </c>
+      <c r="I95" s="11">
+        <v>80518</v>
+      </c>
+      <c r="J95" s="11">
         <v>72478</v>
       </c>
-      <c r="F95" s="11">
+      <c r="K95" s="11">
         <v>71767</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>34388</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>90293</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>94077</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
+        <v>111200</v>
+      </c>
+      <c r="F96" s="9">
+        <v>121533</v>
+      </c>
+      <c r="G96" s="9">
+        <v>169142</v>
+      </c>
+      <c r="H96" s="9">
+        <v>90345</v>
+      </c>
+      <c r="I96" s="9">
+        <v>117977</v>
+      </c>
+      <c r="J96" s="9">
         <v>29193</v>
       </c>
-      <c r="F96" s="9">
+      <c r="K96" s="9">
         <v>97970</v>
       </c>
-      <c r="G96" s="9">
+      <c r="L96" s="9">
         <v>56004</v>
       </c>
-      <c r="H96" s="9">
+      <c r="M96" s="9">
         <v>156599</v>
       </c>
-      <c r="I96" s="9">
+      <c r="N96" s="9">
         <v>109975</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>137808</v>
+      </c>
+      <c r="F97" s="11">
+        <v>147307</v>
+      </c>
+      <c r="G97" s="11">
+        <v>262284</v>
+      </c>
+      <c r="H97" s="11">
+        <v>178447</v>
+      </c>
+      <c r="I97" s="11">
+        <v>178606</v>
+      </c>
+      <c r="J97" s="11">
         <v>533254</v>
       </c>
-      <c r="F97" s="11">
+      <c r="K97" s="11">
         <v>-102590</v>
       </c>
-      <c r="G97" s="11">
+      <c r="L97" s="11">
         <v>127441</v>
       </c>
-      <c r="H97" s="11">
+      <c r="M97" s="11">
         <v>402036</v>
       </c>
-      <c r="I97" s="11">
+      <c r="N97" s="11">
         <v>359323</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
+        <v>80514</v>
+      </c>
+      <c r="F98" s="9">
+        <v>112113</v>
+      </c>
+      <c r="G98" s="9">
+        <v>82767</v>
+      </c>
+      <c r="H98" s="9">
+        <v>94793</v>
+      </c>
+      <c r="I98" s="9">
+        <v>125388</v>
+      </c>
+      <c r="J98" s="9">
         <v>141005</v>
       </c>
-      <c r="F98" s="9">
+      <c r="K98" s="9">
         <v>101457</v>
       </c>
-      <c r="G98" s="9">
+      <c r="L98" s="9">
         <v>85266</v>
       </c>
-      <c r="H98" s="9">
+      <c r="M98" s="9">
         <v>231066</v>
       </c>
-      <c r="I98" s="9">
+      <c r="N98" s="9">
         <v>240747</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C99" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11">
+        <v>46245</v>
+      </c>
+      <c r="F99" s="11">
+        <v>85113</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C100" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>26</v>
+      <c r="E100" s="9">
+        <v>46354</v>
+      </c>
+      <c r="F100" s="9">
+        <v>53268</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N100" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
+        <v>422121</v>
+      </c>
+      <c r="F101" s="13">
+        <v>519334</v>
+      </c>
+      <c r="G101" s="13">
+        <v>1002203</v>
+      </c>
+      <c r="H101" s="13">
+        <v>488141</v>
+      </c>
+      <c r="I101" s="13">
+        <v>573969</v>
+      </c>
+      <c r="J101" s="13">
         <v>857126</v>
       </c>
-      <c r="F101" s="13">
+      <c r="K101" s="13">
         <v>267272</v>
       </c>
-      <c r="G101" s="13">
+      <c r="L101" s="13">
         <v>350257</v>
       </c>
-      <c r="H101" s="13">
+      <c r="M101" s="13">
         <v>1116276</v>
       </c>
-      <c r="I101" s="13">
+      <c r="N101" s="13">
         <v>1007225</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2663,8 +3873,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2673,8 +3888,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2683,10 +3903,15 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2705,8 +3930,23 @@
       <c r="I105" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2715,198 +3955,323 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9">
+      <c r="E107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="9">
+        <v>263896</v>
+      </c>
+      <c r="H107" s="9">
+        <v>59640</v>
+      </c>
+      <c r="I107" s="9">
+        <v>77750</v>
+      </c>
+      <c r="J107" s="9">
         <v>86786</v>
       </c>
-      <c r="F107" s="9">
+      <c r="K107" s="9">
         <v>92206</v>
       </c>
-      <c r="G107" s="9">
+      <c r="L107" s="9">
         <v>48764</v>
       </c>
-      <c r="H107" s="9">
+      <c r="M107" s="9">
         <v>217910</v>
       </c>
-      <c r="I107" s="9">
+      <c r="N107" s="9">
         <v>193003</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11">
+      <c r="E108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="11">
+        <v>214185</v>
+      </c>
+      <c r="H108" s="11">
+        <v>74894</v>
+      </c>
+      <c r="I108" s="11">
+        <v>68427</v>
+      </c>
+      <c r="J108" s="11">
         <v>79309</v>
       </c>
-      <c r="F108" s="11">
+      <c r="K108" s="11">
         <v>73169</v>
       </c>
-      <c r="G108" s="11">
+      <c r="L108" s="11">
         <v>33370</v>
       </c>
-      <c r="H108" s="11">
+      <c r="M108" s="11">
         <v>87736</v>
       </c>
-      <c r="I108" s="11">
+      <c r="N108" s="11">
         <v>93300</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
+        <v>41799</v>
+      </c>
+      <c r="F109" s="9">
+        <v>180750</v>
+      </c>
+      <c r="G109" s="9">
+        <v>26539</v>
+      </c>
+      <c r="H109" s="9">
+        <v>157508</v>
+      </c>
+      <c r="I109" s="9">
+        <v>77675</v>
+      </c>
+      <c r="J109" s="9">
         <v>59922</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>73855</v>
       </c>
-      <c r="G109" s="9">
+      <c r="L109" s="9">
         <v>43130</v>
       </c>
-      <c r="H109" s="9">
+      <c r="M109" s="9">
         <v>98465</v>
       </c>
-      <c r="I109" s="9">
+      <c r="N109" s="9">
         <v>130667</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
+        <v>187431</v>
+      </c>
+      <c r="F110" s="11">
+        <v>129284</v>
+      </c>
+      <c r="G110" s="11">
+        <v>276670</v>
+      </c>
+      <c r="H110" s="11">
+        <v>125307</v>
+      </c>
+      <c r="I110" s="11">
+        <v>224302</v>
+      </c>
+      <c r="J110" s="11">
         <v>510362</v>
       </c>
-      <c r="F110" s="11">
+      <c r="K110" s="11">
         <v>-288154</v>
       </c>
-      <c r="G110" s="11">
+      <c r="L110" s="11">
         <v>177432</v>
       </c>
-      <c r="H110" s="11">
+      <c r="M110" s="11">
         <v>502723</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>339796</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
+        <v>80888</v>
+      </c>
+      <c r="F111" s="9">
+        <v>111073</v>
+      </c>
+      <c r="G111" s="9">
+        <v>84719</v>
+      </c>
+      <c r="H111" s="9">
+        <v>94396</v>
+      </c>
+      <c r="I111" s="9">
+        <v>123973</v>
+      </c>
+      <c r="J111" s="9">
         <v>140292</v>
       </c>
-      <c r="F111" s="9">
+      <c r="K111" s="9">
         <v>103481</v>
       </c>
-      <c r="G111" s="9">
+      <c r="L111" s="9">
         <v>80254</v>
       </c>
-      <c r="H111" s="9">
+      <c r="M111" s="9">
         <v>229780</v>
       </c>
-      <c r="I111" s="9">
+      <c r="N111" s="9">
         <v>234617</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11">
+        <v>52695</v>
+      </c>
+      <c r="F112" s="11">
+        <v>87094</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I112" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B113" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C113" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>26</v>
+      <c r="E113" s="9">
+        <v>50925</v>
+      </c>
+      <c r="F113" s="9">
+        <v>57362</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
+        <v>413738</v>
+      </c>
+      <c r="F114" s="13">
+        <v>565563</v>
+      </c>
+      <c r="G114" s="13">
+        <v>866009</v>
+      </c>
+      <c r="H114" s="13">
+        <v>511745</v>
+      </c>
+      <c r="I114" s="13">
+        <v>572127</v>
+      </c>
+      <c r="J114" s="13">
         <v>876671</v>
       </c>
-      <c r="F114" s="13">
+      <c r="K114" s="13">
         <v>54557</v>
       </c>
-      <c r="G114" s="13">
+      <c r="L114" s="13">
         <v>382950</v>
       </c>
-      <c r="H114" s="13">
+      <c r="M114" s="13">
         <v>1136614</v>
       </c>
-      <c r="I114" s="13">
+      <c r="N114" s="13">
         <v>991383</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2915,8 +4280,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2925,8 +4295,13 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2935,10 +4310,15 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -2957,8 +4337,23 @@
       <c r="I118" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2967,198 +4362,323 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D120" s="9"/>
-      <c r="E120" s="9">
-        <v>0</v>
-      </c>
-      <c r="F120" s="9">
+      <c r="E120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="9">
+        <v>11311</v>
+      </c>
+      <c r="H120" s="9">
+        <v>11860</v>
+      </c>
+      <c r="I120" s="9">
+        <v>5590</v>
+      </c>
+      <c r="J120" s="9">
+        <v>0</v>
+      </c>
+      <c r="K120" s="9">
         <v>6462</v>
       </c>
-      <c r="G120" s="9">
+      <c r="L120" s="9">
         <v>4856</v>
       </c>
-      <c r="H120" s="9">
+      <c r="M120" s="9">
         <v>23228</v>
       </c>
-      <c r="I120" s="9">
+      <c r="N120" s="9">
         <v>33328</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11">
+      <c r="E121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="11">
+        <v>11393</v>
+      </c>
+      <c r="H121" s="11">
+        <v>866</v>
+      </c>
+      <c r="I121" s="11">
+        <v>12957</v>
+      </c>
+      <c r="J121" s="11">
         <v>6126</v>
       </c>
-      <c r="F121" s="11">
+      <c r="K121" s="11">
         <v>4724</v>
       </c>
-      <c r="G121" s="11">
+      <c r="L121" s="11">
         <v>5742</v>
       </c>
-      <c r="H121" s="11">
+      <c r="M121" s="11">
         <v>8299</v>
       </c>
-      <c r="I121" s="11">
+      <c r="N121" s="11">
         <v>9076</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
+        <v>89713</v>
+      </c>
+      <c r="F122" s="9">
+        <v>30496</v>
+      </c>
+      <c r="G122" s="9">
+        <v>173099</v>
+      </c>
+      <c r="H122" s="9">
+        <v>105936</v>
+      </c>
+      <c r="I122" s="9">
+        <v>146238</v>
+      </c>
+      <c r="J122" s="9">
         <v>115509</v>
       </c>
-      <c r="F122" s="9">
+      <c r="K122" s="9">
         <v>139624</v>
       </c>
-      <c r="G122" s="9">
+      <c r="L122" s="9">
         <v>152498</v>
       </c>
-      <c r="H122" s="9">
+      <c r="M122" s="9">
         <v>210632</v>
       </c>
-      <c r="I122" s="9">
+      <c r="N122" s="9">
         <v>189940</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
+        <v>114653</v>
+      </c>
+      <c r="F123" s="11">
+        <v>132676</v>
+      </c>
+      <c r="G123" s="11">
+        <v>118290</v>
+      </c>
+      <c r="H123" s="11">
+        <v>171430</v>
+      </c>
+      <c r="I123" s="11">
+        <v>125734</v>
+      </c>
+      <c r="J123" s="11">
         <v>148626</v>
       </c>
-      <c r="F123" s="11">
+      <c r="K123" s="11">
         <v>334190</v>
       </c>
-      <c r="G123" s="11">
+      <c r="L123" s="11">
         <v>284199</v>
       </c>
-      <c r="H123" s="11">
+      <c r="M123" s="11">
         <v>183512</v>
       </c>
-      <c r="I123" s="11">
+      <c r="N123" s="11">
         <v>203039</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
+        <v>1214</v>
+      </c>
+      <c r="F124" s="9">
+        <v>2254</v>
+      </c>
+      <c r="G124" s="9">
+        <v>302</v>
+      </c>
+      <c r="H124" s="9">
+        <v>699</v>
+      </c>
+      <c r="I124" s="9">
+        <v>2114</v>
+      </c>
+      <c r="J124" s="9">
         <v>2827</v>
       </c>
-      <c r="F124" s="9">
+      <c r="K124" s="9">
         <v>803</v>
       </c>
-      <c r="G124" s="9">
+      <c r="L124" s="9">
         <v>5815</v>
       </c>
-      <c r="H124" s="9">
+      <c r="M124" s="9">
         <v>7101</v>
       </c>
-      <c r="I124" s="9">
+      <c r="N124" s="9">
         <v>13231</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C125" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11">
+        <v>2676</v>
+      </c>
+      <c r="F125" s="11">
+        <v>695</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H125" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I125" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B126" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C126" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D126" s="9"/>
-      <c r="E126" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>26</v>
+      <c r="E126" s="9">
+        <v>6450</v>
+      </c>
+      <c r="F126" s="9">
+        <v>2356</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N126" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
+        <v>214706</v>
+      </c>
+      <c r="F127" s="13">
+        <v>168477</v>
+      </c>
+      <c r="G127" s="13">
+        <v>314395</v>
+      </c>
+      <c r="H127" s="13">
+        <v>290791</v>
+      </c>
+      <c r="I127" s="13">
+        <v>292633</v>
+      </c>
+      <c r="J127" s="13">
         <v>273088</v>
       </c>
-      <c r="F127" s="13">
+      <c r="K127" s="13">
         <v>485803</v>
       </c>
-      <c r="G127" s="13">
+      <c r="L127" s="13">
         <v>453110</v>
       </c>
-      <c r="H127" s="13">
+      <c r="M127" s="13">
         <v>432772</v>
       </c>
-      <c r="I127" s="13">
+      <c r="N127" s="13">
         <v>448614</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3167,8 +4687,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3177,8 +4702,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3187,10 +4717,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3209,8 +4744,23 @@
       <c r="I131" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3219,176 +4769,286 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="9">
+      <c r="E133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133" s="9">
+        <v>108759615</v>
+      </c>
+      <c r="I133" s="9">
+        <v>237200000</v>
+      </c>
+      <c r="J133" s="9">
         <v>139750000</v>
       </c>
-      <c r="F133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" s="9">
+      <c r="K133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L133" s="9">
         <v>165692308</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>323733333</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>464560000</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D134" s="11"/>
-      <c r="E134" s="11">
+      <c r="E134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" s="11">
+        <v>128011236</v>
+      </c>
+      <c r="I134" s="11">
+        <v>123714286</v>
+      </c>
+      <c r="J134" s="11">
         <v>124586538</v>
       </c>
-      <c r="F134" s="11">
+      <c r="K134" s="11">
         <v>130340426</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>147625000</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>168882353</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>184422222</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
+        <v>344793651</v>
+      </c>
+      <c r="F135" s="9">
+        <v>659654412</v>
+      </c>
+      <c r="G135" s="9">
+        <v>327913978</v>
+      </c>
+      <c r="H135" s="9">
+        <v>925663102</v>
+      </c>
+      <c r="I135" s="9">
+        <v>696947368</v>
+      </c>
+      <c r="J135" s="9">
         <v>994816327</v>
       </c>
-      <c r="F135" s="9">
+      <c r="K135" s="9">
         <v>1022203540</v>
       </c>
-      <c r="G135" s="9">
+      <c r="L135" s="9">
         <v>1517652174</v>
       </c>
-      <c r="H135" s="9">
+      <c r="M135" s="9">
         <v>1200771654</v>
       </c>
-      <c r="I135" s="9">
+      <c r="N135" s="9">
         <v>2127595960</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
+        <v>178924000000</v>
+      </c>
+      <c r="F136" s="11">
+        <v>114653000000</v>
+      </c>
+      <c r="G136" s="11">
+        <v>132676000000</v>
+      </c>
+      <c r="H136" s="11">
+        <v>118290000000</v>
+      </c>
+      <c r="I136" s="11">
+        <v>171430000000</v>
+      </c>
+      <c r="J136" s="11">
         <v>125734000000</v>
       </c>
-      <c r="F136" s="11">
+      <c r="K136" s="11">
         <v>148626000000</v>
       </c>
-      <c r="G136" s="11">
+      <c r="L136" s="11">
         <v>334190000000</v>
       </c>
-      <c r="H136" s="11">
+      <c r="M136" s="11">
         <v>284199000000</v>
       </c>
-      <c r="I136" s="11">
+      <c r="N136" s="11">
         <v>183512000000</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
+        <v>28557377</v>
+      </c>
+      <c r="F137" s="9">
+        <v>35705882</v>
+      </c>
+      <c r="G137" s="9">
+        <v>35218750</v>
+      </c>
+      <c r="H137" s="9">
+        <v>43142857</v>
+      </c>
+      <c r="I137" s="9">
+        <v>46600000</v>
+      </c>
+      <c r="J137" s="9">
         <v>58722222</v>
       </c>
-      <c r="F137" s="9">
+      <c r="K137" s="9">
         <v>76405405</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>100375000</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>129222222</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>144918367</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="E138" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F138" s="11" t="s">
-        <v>26</v>
+      <c r="E138" s="11">
+        <v>83724771</v>
+      </c>
+      <c r="F138" s="11">
+        <v>102923077</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N138" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D139" s="9"/>
-      <c r="E139" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>26</v>
+      <c r="E139" s="9">
+        <v>62619318</v>
+      </c>
+      <c r="F139" s="9">
+        <v>67894737</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3397,8 +5057,13 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3407,8 +5072,13 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3417,10 +5087,15 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3439,8 +5114,23 @@
       <c r="I143" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3449,176 +5139,286 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D145" s="9"/>
-      <c r="E145" s="9">
+      <c r="E145" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" s="9">
+        <v>102025495</v>
+      </c>
+      <c r="H145" s="9">
+        <v>128334755</v>
+      </c>
+      <c r="I145" s="9">
+        <v>144696356</v>
+      </c>
+      <c r="J145" s="9">
         <v>159834646</v>
       </c>
-      <c r="F145" s="9">
+      <c r="K145" s="9">
         <v>240653659</v>
       </c>
-      <c r="G145" s="9">
+      <c r="L145" s="9">
         <v>314386667</v>
       </c>
-      <c r="H145" s="9">
+      <c r="M145" s="9">
         <v>548218097</v>
       </c>
-      <c r="I145" s="9">
+      <c r="N145" s="9">
         <v>455387892</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="11">
+      <c r="E146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" s="11">
+        <v>76669107</v>
+      </c>
+      <c r="H146" s="11">
+        <v>122837786</v>
+      </c>
+      <c r="I146" s="11">
+        <v>121812405</v>
+      </c>
+      <c r="J146" s="11">
         <v>129194296</v>
       </c>
-      <c r="F146" s="11">
+      <c r="K146" s="11">
         <v>168072600</v>
       </c>
-      <c r="G146" s="11">
+      <c r="L146" s="11">
         <v>173676768</v>
       </c>
-      <c r="H146" s="11">
+      <c r="M146" s="11">
         <v>201097996</v>
       </c>
-      <c r="I146" s="11">
+      <c r="N146" s="11">
         <v>186291089</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
+        <v>250450450</v>
+      </c>
+      <c r="F147" s="9">
+        <v>446812500</v>
+      </c>
+      <c r="G147" s="9">
+        <v>924273224</v>
+      </c>
+      <c r="H147" s="9">
+        <v>473010471</v>
+      </c>
+      <c r="I147" s="9">
+        <v>670323864</v>
+      </c>
+      <c r="J147" s="9">
         <v>178006098</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>675655172</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>651209302</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>1159992593</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>539093137</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148" s="11">
+        <v>31</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" s="11">
+        <v>178447000000</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L148" s="11">
         <v>127441000000</v>
       </c>
-      <c r="H148" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I148" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N148" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9">
+        <v>32676136</v>
+      </c>
+      <c r="F149" s="9">
+        <v>39420886</v>
+      </c>
+      <c r="G149" s="9">
+        <v>39868497</v>
+      </c>
+      <c r="H149" s="9">
+        <v>46581327</v>
+      </c>
+      <c r="I149" s="9">
+        <v>63231467</v>
+      </c>
+      <c r="J149" s="9">
         <v>66827014</v>
       </c>
-      <c r="F149" s="9">
+      <c r="K149" s="9">
         <v>73733285</v>
       </c>
-      <c r="G149" s="9">
+      <c r="L149" s="9">
         <v>132195349</v>
       </c>
-      <c r="H149" s="9">
+      <c r="M149" s="9">
         <v>153023841</v>
       </c>
-      <c r="I149" s="9">
+      <c r="N149" s="9">
         <v>154226137</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D150" s="11"/>
-      <c r="E150" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>26</v>
+      <c r="E150" s="11">
+        <v>86117318</v>
+      </c>
+      <c r="F150" s="11">
+        <v>128763994</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N150" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D151" s="9"/>
-      <c r="E151" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>26</v>
+      <c r="E151" s="9">
+        <v>70554033</v>
+      </c>
+      <c r="F151" s="9">
+        <v>69813893</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N151" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3627,8 +5427,13 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3637,8 +5442,13 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3647,10 +5457,15 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3669,8 +5484,23 @@
       <c r="I155" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3679,176 +5509,286 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D157" s="9"/>
-      <c r="E157" s="9">
+      <c r="E157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157" s="9">
+        <v>100762123</v>
+      </c>
+      <c r="H157" s="9">
+        <v>114034417</v>
+      </c>
+      <c r="I157" s="9">
+        <v>154265873</v>
+      </c>
+      <c r="J157" s="9">
         <v>158368613</v>
       </c>
-      <c r="F157" s="9">
+      <c r="K157" s="9">
         <v>248533693</v>
       </c>
-      <c r="G157" s="9">
+      <c r="L157" s="9">
         <v>280252874</v>
       </c>
-      <c r="H157" s="9">
+      <c r="M157" s="9">
         <v>550277778</v>
       </c>
-      <c r="I157" s="9">
+      <c r="N157" s="9">
         <v>462836930</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D158" s="11"/>
-      <c r="E158" s="11">
+      <c r="E158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G158" s="11">
+        <v>74292404</v>
+      </c>
+      <c r="H158" s="11">
+        <v>123587459</v>
+      </c>
+      <c r="I158" s="11">
+        <v>121324468</v>
+      </c>
+      <c r="J158" s="11">
         <v>128331715</v>
       </c>
-      <c r="F158" s="11">
+      <c r="K158" s="11">
         <v>165540724</v>
       </c>
-      <c r="G158" s="11">
+      <c r="L158" s="11">
         <v>170255102</v>
       </c>
-      <c r="H158" s="11">
+      <c r="M158" s="11">
         <v>200310502</v>
       </c>
-      <c r="I158" s="11">
+      <c r="N158" s="11">
         <v>186973948</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
+        <v>111464000</v>
+      </c>
+      <c r="F159" s="9">
+        <v>573809524</v>
+      </c>
+      <c r="G159" s="9">
+        <v>298191011</v>
+      </c>
+      <c r="H159" s="9">
+        <v>696938053</v>
+      </c>
+      <c r="I159" s="9">
+        <v>429143646</v>
+      </c>
+      <c r="J159" s="9">
         <v>302636364</v>
       </c>
-      <c r="F159" s="9">
+      <c r="K159" s="9">
         <v>444909639</v>
       </c>
-      <c r="G159" s="9">
+      <c r="L159" s="9">
         <v>845686275</v>
       </c>
-      <c r="H159" s="9">
+      <c r="M159" s="9">
         <v>604079755</v>
       </c>
-      <c r="I159" s="9">
+      <c r="N159" s="9">
         <v>663284264</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G160" s="11">
+        <v>31</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H160" s="11">
+        <v>125307000000</v>
+      </c>
+      <c r="I160" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J160" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K160" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L160" s="11">
         <v>177432000000</v>
       </c>
-      <c r="H160" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I160" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M160" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N160" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
+        <v>32550503</v>
+      </c>
+      <c r="F161" s="9">
+        <v>39471571</v>
+      </c>
+      <c r="G161" s="9">
+        <v>39718237</v>
+      </c>
+      <c r="H161" s="9">
+        <v>46569314</v>
+      </c>
+      <c r="I161" s="9">
+        <v>63187054</v>
+      </c>
+      <c r="J161" s="9">
         <v>66520626</v>
       </c>
-      <c r="F161" s="9">
+      <c r="K161" s="9">
         <v>73651957</v>
       </c>
-      <c r="G161" s="9">
+      <c r="L161" s="9">
         <v>131996711</v>
       </c>
-      <c r="H161" s="9">
+      <c r="M161" s="9">
         <v>152576361</v>
       </c>
-      <c r="I161" s="9">
+      <c r="N161" s="9">
         <v>153344444</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D162" s="11"/>
-      <c r="E162" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F162" s="11" t="s">
-        <v>26</v>
+      <c r="E162" s="11">
+        <v>84991935</v>
+      </c>
+      <c r="F162" s="11">
+        <v>128079412</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H162" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K162" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L162" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M162" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N162" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D163" s="9"/>
-      <c r="E163" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>26</v>
+      <c r="E163" s="9">
+        <v>69004065</v>
+      </c>
+      <c r="F163" s="9">
+        <v>69698663</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K163" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L163" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M163" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N163" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3857,8 +5797,13 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3867,8 +5812,13 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3877,10 +5827,15 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+    </row>
+    <row r="167" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -3899,8 +5854,23 @@
       <c r="I167" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K167" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L167" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M167" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N167" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3909,176 +5879,286 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F169" s="9">
+        <v>31</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I169" s="9">
+        <v>139750000</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K169" s="9">
         <v>165692308</v>
       </c>
-      <c r="G169" s="9">
+      <c r="L169" s="9">
         <v>323733333</v>
       </c>
-      <c r="H169" s="9">
+      <c r="M169" s="9">
         <v>464560000</v>
       </c>
-      <c r="I169" s="9">
+      <c r="N169" s="9">
         <v>421873418</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D170" s="11"/>
-      <c r="E170" s="11">
+      <c r="E170" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I170" s="11">
+        <v>124586538</v>
+      </c>
+      <c r="J170" s="11">
         <v>130340426</v>
       </c>
-      <c r="F170" s="11">
+      <c r="K170" s="11">
         <v>147625000</v>
       </c>
-      <c r="G170" s="11">
+      <c r="L170" s="11">
         <v>168882353</v>
       </c>
-      <c r="H170" s="11">
+      <c r="M170" s="11">
         <v>184422222</v>
       </c>
-      <c r="I170" s="11">
+      <c r="N170" s="11">
         <v>177960784</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D171" s="9"/>
-      <c r="E171" s="9">
+      <c r="E171" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I171" s="9">
+        <v>994816327</v>
+      </c>
+      <c r="J171" s="9">
         <v>1022203540</v>
       </c>
-      <c r="F171" s="9">
+      <c r="K171" s="9">
         <v>1517652174</v>
       </c>
-      <c r="G171" s="9">
+      <c r="L171" s="9">
         <v>1200771654</v>
       </c>
-      <c r="H171" s="9">
+      <c r="M171" s="9">
         <v>2127595960</v>
       </c>
-      <c r="I171" s="9">
+      <c r="N171" s="9">
         <v>1791886792</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C172" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I172" s="11">
+        <v>125734000000</v>
+      </c>
+      <c r="J172" s="11">
+        <v>148626000000</v>
+      </c>
+      <c r="K172" s="11">
+        <v>334190000000</v>
+      </c>
+      <c r="L172" s="11">
+        <v>284199000000</v>
+      </c>
+      <c r="M172" s="11">
+        <v>183512000000</v>
+      </c>
+      <c r="N172" s="11">
+        <v>203039000000</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B173" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C173" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11">
-        <v>148626000000</v>
-      </c>
-      <c r="F172" s="11">
-        <v>334190000000</v>
-      </c>
-      <c r="G172" s="11">
-        <v>284199000000</v>
-      </c>
-      <c r="H172" s="11">
-        <v>183512000000</v>
-      </c>
-      <c r="I172" s="11">
-        <v>203039000000</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B173" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D173" s="9"/>
-      <c r="E173" s="9">
+      <c r="E173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I173" s="9">
+        <v>58722222</v>
+      </c>
+      <c r="J173" s="9">
         <v>76405405</v>
       </c>
-      <c r="F173" s="9">
+      <c r="K173" s="9">
         <v>100375000</v>
       </c>
-      <c r="G173" s="9">
+      <c r="L173" s="9">
         <v>129222222</v>
       </c>
-      <c r="H173" s="9">
+      <c r="M173" s="9">
         <v>144918367</v>
       </c>
-      <c r="I173" s="9">
+      <c r="N173" s="9">
         <v>165387500</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J174" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K174" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L174" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M174" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N174" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J175" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K175" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L175" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M175" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N175" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4087,8 +6167,13 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4097,8 +6182,13 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4107,10 +6197,15 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -4129,8 +6224,23 @@
       <c r="I179" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M179" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N179" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4139,10 +6249,15 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
@@ -4161,10 +6276,25 @@
       <c r="I181" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="9">
+        <v>0</v>
+      </c>
+      <c r="K181" s="9">
+        <v>0</v>
+      </c>
+      <c r="L181" s="9">
+        <v>0</v>
+      </c>
+      <c r="M181" s="9">
+        <v>0</v>
+      </c>
+      <c r="N181" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -4183,10 +6313,25 @@
       <c r="I182" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="11">
+        <v>0</v>
+      </c>
+      <c r="K182" s="11">
+        <v>0</v>
+      </c>
+      <c r="L182" s="11">
+        <v>0</v>
+      </c>
+      <c r="M182" s="11">
+        <v>0</v>
+      </c>
+      <c r="N182" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -4205,10 +6350,25 @@
       <c r="I183" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="9">
+        <v>0</v>
+      </c>
+      <c r="K183" s="9">
+        <v>0</v>
+      </c>
+      <c r="L183" s="9">
+        <v>0</v>
+      </c>
+      <c r="M183" s="9">
+        <v>0</v>
+      </c>
+      <c r="N183" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -4227,10 +6387,25 @@
       <c r="I184" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="11">
+        <v>0</v>
+      </c>
+      <c r="K184" s="11">
+        <v>0</v>
+      </c>
+      <c r="L184" s="11">
+        <v>0</v>
+      </c>
+      <c r="M184" s="11">
+        <v>0</v>
+      </c>
+      <c r="N184" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
@@ -4249,76 +6424,136 @@
       <c r="I185" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J185" s="9">
+        <v>0</v>
+      </c>
+      <c r="K185" s="9">
+        <v>0</v>
+      </c>
+      <c r="L185" s="9">
+        <v>0</v>
+      </c>
+      <c r="M185" s="9">
+        <v>0</v>
+      </c>
+      <c r="N185" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
+        <v>953</v>
+      </c>
+      <c r="F186" s="11">
+        <v>1611</v>
+      </c>
+      <c r="G186" s="11">
+        <v>431</v>
+      </c>
+      <c r="H186" s="11">
+        <v>1249</v>
+      </c>
+      <c r="I186" s="11">
+        <v>1349</v>
+      </c>
+      <c r="J186" s="11">
         <v>4143</v>
       </c>
-      <c r="F186" s="11">
+      <c r="K186" s="11">
         <v>4211</v>
       </c>
-      <c r="G186" s="11">
+      <c r="L186" s="11">
         <v>1360</v>
       </c>
-      <c r="H186" s="11">
+      <c r="M186" s="11">
         <v>2749</v>
       </c>
-      <c r="I186" s="11">
+      <c r="N186" s="11">
         <v>691</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9">
+        <v>25122</v>
+      </c>
+      <c r="F187" s="9">
+        <v>17238</v>
+      </c>
+      <c r="G187" s="9">
+        <v>4187</v>
+      </c>
+      <c r="H187" s="9">
+        <v>14250</v>
+      </c>
+      <c r="I187" s="9">
+        <v>15689</v>
+      </c>
+      <c r="J187" s="9">
         <v>14430</v>
       </c>
-      <c r="F187" s="9">
+      <c r="K187" s="9">
         <v>9508</v>
       </c>
-      <c r="G187" s="9">
+      <c r="L187" s="9">
         <v>6693</v>
       </c>
-      <c r="H187" s="9">
+      <c r="M187" s="9">
         <v>21404</v>
       </c>
-      <c r="I187" s="9">
+      <c r="N187" s="9">
         <v>14048</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
+        <v>21442</v>
+      </c>
+      <c r="F188" s="11">
+        <v>17873</v>
+      </c>
+      <c r="G188" s="11">
+        <v>13658</v>
+      </c>
+      <c r="H188" s="11">
+        <v>21973</v>
+      </c>
+      <c r="I188" s="11">
+        <v>21435</v>
+      </c>
+      <c r="J188" s="11">
         <v>23806</v>
       </c>
-      <c r="F188" s="11">
+      <c r="K188" s="11">
         <v>19421</v>
       </c>
-      <c r="G188" s="11">
+      <c r="L188" s="11">
         <v>5876</v>
       </c>
-      <c r="H188" s="11">
+      <c r="M188" s="11">
         <v>68253</v>
       </c>
-      <c r="I188" s="11">
+      <c r="N188" s="11">
         <v>57089</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
@@ -4337,52 +6572,97 @@
       <c r="I189" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="9">
+        <v>0</v>
+      </c>
+      <c r="K189" s="9">
+        <v>0</v>
+      </c>
+      <c r="L189" s="9">
+        <v>0</v>
+      </c>
+      <c r="M189" s="9">
+        <v>0</v>
+      </c>
+      <c r="N189" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11">
+        <v>-636</v>
+      </c>
+      <c r="F190" s="11">
+        <v>16082</v>
+      </c>
+      <c r="G190" s="11">
+        <v>-9127</v>
+      </c>
+      <c r="H190" s="11">
+        <v>4215</v>
+      </c>
+      <c r="I190" s="11">
+        <v>2763</v>
+      </c>
+      <c r="J190" s="11">
         <v>-2044</v>
       </c>
-      <c r="F190" s="11">
+      <c r="K190" s="11">
         <v>16953</v>
       </c>
-      <c r="G190" s="11">
+      <c r="L190" s="11">
         <v>2720</v>
       </c>
-      <c r="H190" s="11">
+      <c r="M190" s="11">
         <v>16188</v>
       </c>
-      <c r="I190" s="11">
+      <c r="N190" s="11">
         <v>28520</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15">
+        <v>46881</v>
+      </c>
+      <c r="F191" s="15">
+        <v>52804</v>
+      </c>
+      <c r="G191" s="15">
+        <v>9149</v>
+      </c>
+      <c r="H191" s="15">
+        <v>41687</v>
+      </c>
+      <c r="I191" s="15">
+        <v>41236</v>
+      </c>
+      <c r="J191" s="15">
         <v>40335</v>
       </c>
-      <c r="F191" s="15">
+      <c r="K191" s="15">
         <v>50093</v>
       </c>
-      <c r="G191" s="15">
+      <c r="L191" s="15">
         <v>16649</v>
       </c>
-      <c r="H191" s="15">
+      <c r="M191" s="15">
         <v>108594</v>
       </c>
-      <c r="I191" s="15">
+      <c r="N191" s="15">
         <v>100348</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4391,8 +6671,13 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4401,8 +6686,13 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4411,10 +6701,15 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+    </row>
+    <row r="195" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -4423,8 +6718,13 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4433,13 +6733,18 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
@@ -4447,123 +6752,128 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
